--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_05.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,296 +505,6950 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702131.2738793</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731702131.9600415</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702131.2738793.png</t>
+          <t>1731871813.3796258</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702131.9600415.png</t>
+          <t>1731871814.1592278</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/SBER1731871813.3796258.png</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2896.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2898</v>
+          <t>./test_images/SBER1731871814.1592278.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>1.75</v>
+        <v>279.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06</v>
+        <v>278.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731702132.1355472</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731702133.910871</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702132.1355472.png</t>
+          <t>1731871814.9467533</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702133.910871.png</t>
+          <t>1731871815.019267</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871814.9467533.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871815.019267.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>2893.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2897.95</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>4.599999999999909</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.16</v>
+        <v>278.73</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7300000000000182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731702133.9501889</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731702135.1033075</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702133.9501889.png</t>
+          <t>1731871815.8731923</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702135.1033075.png</t>
+          <t>1731871818.1254349</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/SBER1731871815.8731923.png</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2900.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2900.5</v>
+          <t>./test_images/SBER1731871818.1254349.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1999999999998181</v>
+        <v>277.93</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01</v>
+        <v>277.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4300000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731702135.1709828</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731702136.393948</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702135.1709828.png</t>
+          <t>1731871818.2270694</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731702136.393948.png</t>
+          <t>1731871818.8131192</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731871818.2270694.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871818.8131192.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2904.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2904</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>0.9000000000000909</v>
+        <v>277.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03</v>
+        <v>277.68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1731871819.867482</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1731871819.996968</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871819.867482.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871819.996968.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>278</v>
+      </c>
+      <c r="L7" t="n">
+        <v>277.81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1731871820.7855527</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731871820.7855527.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>277.73</v>
+      </c>
+      <c r="L8" t="n">
+        <v>275.69</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.04000000000002</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731871824.9778376</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1731871826.177424</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871824.9778376.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871826.177424.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>128.35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>128.02</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3299999999999841</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731871826.8873684</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731871827.6327622</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871826.8873684.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871827.6327622.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="L10" t="n">
+        <v>127.98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6200000000000045</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731871828.6475248</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731871829.4108229</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871828.6475248.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871829.4108229.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>128.28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>127.91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3700000000000045</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731871831.429336</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731871831.429336.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>127.86</v>
+      </c>
+      <c r="L12" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731871833.012683</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731871833.4606845</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871833.012683.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871833.4606845.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>6438.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6420.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731871834.0099995</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731871834.819596</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871834.0099995.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871834.819596.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6415</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6419.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731871835.1514149</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731871835.254446</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871835.1514149.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871835.254446.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>6428.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6416.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731871835.4262736</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731871836.7696805</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871835.4262736.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871836.7696805.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>6398</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6426.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731871837.0557365</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731871838.204485</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871837.0557365.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871838.204485.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>6433</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6438</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731871838.2847548</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731871838.854253</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871838.2847548.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871838.854253.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>6434.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6438</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731871839.0516925</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731871839.8856354</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871839.0516925.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871839.8856354.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>6445.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6445.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731871840.109997</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731871840.1542318</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871840.109997.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871840.1542318.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6440</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6443</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731871840.5662649</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731871840.5662649.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>6435</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731871844.1068249</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731871844.3724418</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871844.1068249.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871844.3724418.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>498.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>497.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5500000000000114</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731871844.6301107</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731871845.8238432</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871844.6301107.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871845.8238432.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>497.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>496.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731871846.2582328</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731871846.9748313</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871846.2582328.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871846.9748313.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>497.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>497.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731871847.0174472</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731871847.9585414</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871847.0174472.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871847.9585414.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>497.25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>497.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731871847.9724774</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731871848.841003</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871847.9724774.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871848.841003.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>497.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731871849.0912704</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731871849.0912704.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>497.15</v>
+      </c>
+      <c r="L27" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731871851.0322065</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731871851.3518927</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871851.0322065.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871851.3518927.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>224.93</v>
+      </c>
+      <c r="L28" t="n">
+        <v>224.52</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731871852.6607163</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731871855.2265246</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871852.6607163.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871855.2265246.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>223.91</v>
+      </c>
+      <c r="L29" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.289999999999992</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731871855.5890205</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731871856.7128894</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871855.5890205.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871856.7128894.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>224.78</v>
+      </c>
+      <c r="L30" t="n">
+        <v>225.02</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731871856.9163225</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731871857.56204</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871856.9163225.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871857.56204.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>224.77</v>
+      </c>
+      <c r="L31" t="n">
+        <v>225.15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731871857.7314928</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731871858.5060847</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871857.7314928.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871858.5060847.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>225.24</v>
+      </c>
+      <c r="L32" t="n">
+        <v>225.04</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2000000000000171</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731871858.927624</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731871858.927624.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>224.87</v>
+      </c>
+      <c r="L33" t="n">
+        <v>223.39</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1.480000000000018</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731871861.0305433</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731871861.9466877</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871861.0305433.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871861.9466877.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1007.8</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1006.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731871862.9749284</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731871864.4000263</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871862.9749284.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871864.4000263.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1003.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1004.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731871864.933269</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731871866.0090055</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871864.933269.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871866.0090055.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1008.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-2.200000000000045</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731871866.629412</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731871867.3335612</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871866.629412.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871867.3335612.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1010.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1007.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731871867.868168</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731871867.868168.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1004.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731871870.011221</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1731871870.4470558</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871870.011221.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871870.4470558.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>11.925</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11.927</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.001999999999998892</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731871871.441074</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731871871.573358</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871871.441074.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871871.573358.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>11.927</v>
+      </c>
+      <c r="L40" t="n">
+        <v>11.925</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.001999999999998892</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731871872.361466</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731871873.6545308</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871872.361466.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871873.6545308.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>11.923</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11.927</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.003999999999999559</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731871874.0487194</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731871874.6849005</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871874.0487194.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871874.6849005.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>11.927</v>
+      </c>
+      <c r="L42" t="n">
+        <v>11.924</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731871875.173855</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731871875.173855.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>11.927</v>
+      </c>
+      <c r="L43" t="n">
+        <v>11.928</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731871875.934864</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731871876.4211829</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871875.934864.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871876.4211829.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>124.48</v>
+      </c>
+      <c r="L44" t="n">
+        <v>124.64</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731871876.912134</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731871877.2427208</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871876.912134.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871877.2427208.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>124.44</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731871877.807538</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731871878.2320578</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871877.807538.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871878.2320578.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>124.44</v>
+      </c>
+      <c r="L46" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731871878.3327882</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731871879.4730365</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871878.3327882.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871879.4730365.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>124.22</v>
+      </c>
+      <c r="L47" t="n">
+        <v>124.34</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731871880.2379532</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731871881.9090393</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871880.2379532.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871881.9090393.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>124.34</v>
+      </c>
+      <c r="L48" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1199999999999903</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731871881.9245322</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731871882.0660782</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871881.9245322.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871882.0660782.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="L49" t="n">
+        <v>124.48</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731871884.1764927</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1731871884.3759668</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871884.1764927.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871884.3759668.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>124.42</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731871885.29601</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731871885.29601.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>124.18</v>
+      </c>
+      <c r="L51" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731871886.023491</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731871886.137498</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871886.023491.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871886.137498.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>161.44</v>
+      </c>
+      <c r="L52" t="n">
+        <v>161.12</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.3199999999999932</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731871886.2902467</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731871886.9000218</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871886.2902467.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871886.9000218.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>160.98</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1799999999999784</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731871887.032952</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731871887.0820086</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.032952.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.0820086.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>161</v>
+      </c>
+      <c r="L54" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731871887.0979917</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731871887.2397847</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.0979917.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.2397847.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="L55" t="n">
+        <v>161.06</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731871887.2547448</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731871887.3052034</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.2547448.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.3052034.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>161.06</v>
+      </c>
+      <c r="L56" t="n">
+        <v>160.98</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731871887.562656</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1731871887.736542</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.562656.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.736542.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>160.94</v>
+      </c>
+      <c r="L57" t="n">
+        <v>161.06</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731871887.7517</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731871888.0944233</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871887.7517.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871888.0944233.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>161.06</v>
+      </c>
+      <c r="L58" t="n">
+        <v>161.06</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731871888.4285529</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731871890.6817398</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871888.4285529.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871890.6817398.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>160.32</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.5800000000000125</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731871890.73759</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731871890.8248684</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871890.73759.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871890.8248684.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>160.32</v>
+      </c>
+      <c r="L60" t="n">
+        <v>160.44</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731871891.2817216</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1731871894.8913476</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871891.2817216.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871894.8913476.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>160.94</v>
+      </c>
+      <c r="L61" t="n">
+        <v>160.78</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731871895.0410242</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731871895.0410242.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>160.58</v>
+      </c>
+      <c r="L62" t="n">
+        <v>160.56</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731871896.5845988</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731871897.1174638</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871896.5845988.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871897.1174638.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>49.065</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1350000000000051</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731871898.5489628</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731871898.8577988</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871898.5489628.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871898.8577988.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>49.095</v>
+      </c>
+      <c r="L64" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.03499999999999659</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731871898.8737855</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731871901.0780036</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871898.8737855.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871901.0780036.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="L65" t="n">
+        <v>49.09</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731871901.0939338</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731871901.3225482</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871901.0939338.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871901.3225482.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>49.09</v>
+      </c>
+      <c r="L66" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731871901.3764043</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731871902.390192</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871901.3764043.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871902.390192.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>49.105</v>
+      </c>
+      <c r="L67" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731871903.1881843</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1731871903.3173814</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871903.1881843.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871903.3173814.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>49.235</v>
+      </c>
+      <c r="L68" t="n">
+        <v>49.195</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731871903.6992552</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731871903.6992552.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="L69" t="n">
+        <v>48.845</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.3350000000000009</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731871906.4999073</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731871907.7994602</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871906.4999073.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871907.7994602.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1385</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1383.6</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.400000000000091</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731871907.8144202</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731871908.8322449</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871907.8144202.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871908.8322449.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1383.6</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1382.6</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731871909.1005158</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731871911.4601777</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871909.1005158.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871911.4601777.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1379.2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1377.4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731871912.1492448</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1731871914.6369362</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871912.1492448.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871914.6369362.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1378.6</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1379.6</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731871915.1143417</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731871915.2859006</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871915.1143417.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871915.2859006.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1378.4</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1378.6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731871915.888554</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731871915.888554.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1376.4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731871917.1687315</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731871917.8296387</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871917.1687315.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871917.8296387.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731871918.061138</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731871918.290393</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871918.061138.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871918.290393.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731871918.976783</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731871919.509971</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871918.976783.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871919.509971.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>59.18</v>
+      </c>
+      <c r="L78" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731871919.7400727</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731871919.7818942</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871919.7400727.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871919.7818942.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>59.05</v>
+      </c>
+      <c r="L79" t="n">
+        <v>59.13</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731871920.1129198</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1731871921.1801424</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871920.1129198.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871921.1801424.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>58.97</v>
+      </c>
+      <c r="L80" t="n">
+        <v>59.39</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.4200000000000017</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.7100000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731871921.766663</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731871923.234894</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871921.766663.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871923.234894.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="L81" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.04999999999999716</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731871925.7503834</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731871925.7503834.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>59.53</v>
+      </c>
+      <c r="L82" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731871927.770495</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731871930.1112666</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731871927.770495.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731871930.1112666.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>95.88</v>
+      </c>
+      <c r="L83" t="n">
+        <v>96.22</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731871931.3595994</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/VTBR1731871931.3595994.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="L84" t="n">
+        <v>95.63</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731871934.4619572</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731871935.747551</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871934.4619572.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871935.747551.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="L85" t="n">
+        <v>56.16</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.4599999999999937</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731871936.226976</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731871937.4193463</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871936.226976.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871937.4193463.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="L86" t="n">
+        <v>56.12</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4199999999999946</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731871938.9826972</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731871939.328741</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871938.9826972.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871939.328741.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>56.06</v>
+      </c>
+      <c r="L87" t="n">
+        <v>56.16</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731871940.856042</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731871941.0799167</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871940.856042.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871941.0799167.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L88" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731871942.2395504</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731871942.2395504.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>56.02</v>
+      </c>
+      <c r="L89" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731871944.000907</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731871944.610358</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871944.000907.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871944.610358.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.4800000000000182</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731871944.8707054</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731871945.2550383</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871944.8707054.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871945.2550383.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8000000000000114</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731871945.388728</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731871946.321347</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871945.388728.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871946.321347.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>139.42</v>
+      </c>
+      <c r="L92" t="n">
+        <v>141.52</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.100000000000023</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731871947.3908453</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731871948.1608348</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871947.3908453.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871948.1608348.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L93" t="n">
+        <v>142.12</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731871949.4127185</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731871949.7832673</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871949.4127185.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871949.7832673.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>141.92</v>
+      </c>
+      <c r="L94" t="n">
+        <v>142.44</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.5200000000000102</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731871949.799252</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731871950.3109336</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871949.799252.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871950.3109336.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>142.44</v>
+      </c>
+      <c r="L95" t="n">
+        <v>142.14</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731871950.642366</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731871950.642366.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>141.76</v>
+      </c>
+      <c r="L96" t="n">
+        <v>141.34</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731871953.3211277</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731871955.9862998</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871953.3211277.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871955.9862998.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>20.002</v>
+      </c>
+      <c r="L97" t="n">
+        <v>19.858</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.1439999999999984</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731871956.8832536</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731871958.2629166</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871956.8832536.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871958.2629166.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>19.884</v>
+      </c>
+      <c r="L98" t="n">
+        <v>19.887</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731871958.6443908</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731871959.9590497</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871958.6443908.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871959.9590497.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>19.936</v>
+      </c>
+      <c r="L99" t="n">
+        <v>19.907</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.02899999999999991</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1731871960.0660744</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1731871960.5973175</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871960.0660744.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871960.5973175.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>19.875</v>
+      </c>
+      <c r="L100" t="n">
+        <v>19.898</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.02299999999999969</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1731871961.015924</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731871961.015924.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>19.791</v>
+      </c>
+      <c r="L101" t="n">
+        <v>19.761</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1731871962.9378831</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1731871963.0646293</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871962.9378831.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871963.0646293.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>650.7</v>
+      </c>
+      <c r="L102" t="n">
+        <v>651.3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1731871964.926185</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1731871965.9346294</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871964.926185.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871965.9346294.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>658</v>
+      </c>
+      <c r="L103" t="n">
+        <v>656.95</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-1.049999999999955</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1731871966.2320256</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1731871967.6458476</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871966.2320256.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871967.6458476.png</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>657.55</v>
+      </c>
+      <c r="L104" t="n">
+        <v>661.4</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-3.850000000000023</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1731871967.698955</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1731871967.9813507</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871967.698955.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871967.9813507.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>660.75</v>
+      </c>
+      <c r="L105" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-1.149999999999977</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1731871968.90033</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1731871969.6572473</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871968.90033.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871969.6572473.png</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>660.6</v>
+      </c>
+      <c r="L106" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1731871970.065473</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731871970.065473.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>660.05</v>
+      </c>
+      <c r="L107" t="n">
+        <v>657</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-3.049999999999955</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1731871972.9631</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1731871974.0204132</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731871972.9631.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731871974.0204132.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>155.27</v>
+      </c>
+      <c r="L108" t="n">
+        <v>155.24</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1731871974.2875376</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1731871974.7333875</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731871974.2875376.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731871974.7333875.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>155.87</v>
+      </c>
+      <c r="L109" t="n">
+        <v>155.41</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.460000000000008</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1731871975.9098322</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>./test_images/MTLR1731871975.9098322.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>155.03</v>
+      </c>
+      <c r="L110" t="n">
+        <v>153.97</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-1.060000000000002</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1731871977.7679844</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1731871977.9870176</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871977.7679844.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871977.9870176.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0.09580000000000001</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.09578</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.000000000000612e-05</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1731871978.3348043</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1731871981.1863704</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871978.3348043.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871981.1863704.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0.09562000000000001</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.09488000000000001</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.0007400000000000045</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1731871982.273497</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1731871983.3956578</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871982.273497.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871983.3956578.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0.09522000000000001</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.09552000000000001</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-0.0002999999999999947</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1731871984.6333225</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731871984.6333225.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.09504</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-0.0005600000000000049</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1731871986.5045786</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1731871987.3829753</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871986.5045786.png</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871987.3829753.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>95.94</v>
+      </c>
+      <c r="L115" t="n">
+        <v>95.45999999999999</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.480000000000004</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1731871987.9834926</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731871987.9834926.png</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>95.44</v>
+      </c>
+      <c r="L116" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.7099999999999937</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731702136.83723</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702136.83723.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1731871992.0568013</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1731871992.8833485</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871992.0568013.png</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871992.8833485.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>2896.25</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2898</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1731871993.1535916</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1731871995.3095155</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871993.1535916.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871995.3095155.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>2893.35</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2897.95</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4.599999999999909</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1731871995.3578286</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1731871996.7544832</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871995.3578286.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871996.7544832.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>2900.7</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2900.5</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1731871996.8323255</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1731871998.408917</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871996.8323255.png</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871998.408917.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>2904.9</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2904</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.9000000000000909</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1731871999.0579429</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731871999.0579429.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>2898.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>2898.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
+      <c r="L121" t="n">
+        <v>2888</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-10.59999999999991</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1731872000.8120654</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1731872001.8186007</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731872000.8120654.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731872001.8186007.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>11.884</v>
+      </c>
+      <c r="L122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1731872002.3409114</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1731872002.4796455</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731872002.3409114.png</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731872002.4796455.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>11.899</v>
+      </c>
+      <c r="L123" t="n">
+        <v>11.894</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.004999999999999005</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1731872003.2820683</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731872003.2820683.png</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>11.914</v>
+      </c>
+      <c r="L124" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.04600000000000115</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +7462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,42 +7505,504 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.449999999999818</v>
+        <v>0.3999999999999488</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.489999999999964</v>
+        <v>0.03636363636363171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.26</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6400000000000148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08000000000000185</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1699999999999946</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.02428571428571352</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3499999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5300000000000082</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07571428571428689</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.060000000000088</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5800000000000125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4400000000000261</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.07333333333333769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-8.399999999999977</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.399999999999996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.28000000000003</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2133333333333383</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.5333333333333409</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9499999999999815</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1899999999999963</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-3.150000000000091</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.6300000000000182</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.399999999999864</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4799999999999727</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.009999999999996234</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001999999999999247</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2800000000000296</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.001579999999999998</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.0003949999999999995</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>MTLR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.5699999999999932</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.3599999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.02500000000000213</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.008333333333334044</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.2199999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2299999999999898</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1149999999999949</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.5600000000000023</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.5800000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
